--- a/tests/pyVazEdit_Excel.xlsx
+++ b/tests/pyVazEdit_Excel.xlsx
@@ -64,10 +64,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,55 +375,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N17"/>
+  <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="14" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>44197</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>44228</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>44256</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>44287</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>44317</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>44348</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>44378</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>44409</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>44440</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>44470</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>44501</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>44531</v>
       </c>
     </row>
@@ -426,51 +435,51 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>$B4*100+MONTH(C$3)</f>
         <v>101</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:N13" si="0">$B4*100+MONTH(D$3)</f>
         <v>102</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
@@ -479,51 +488,51 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" ref="C5:C13" si="1">$B5*100+MONTH(C$3)</f>
         <v>201</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
@@ -532,51 +541,51 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>601</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>603</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>606</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>608</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>609</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>611</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
@@ -585,51 +594,51 @@
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>701</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>702</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>703</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>706</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>707</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
@@ -638,51 +647,51 @@
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>801</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>802</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>803</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>804</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>806</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>807</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>811</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>812</v>
       </c>
@@ -691,51 +700,51 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>1001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
@@ -744,51 +753,51 @@
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>2001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
@@ -797,51 +806,51 @@
       <c r="B11">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>2201</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>2202</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>2203</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>2204</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>2205</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>2206</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>2207</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>2208</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>2209</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>2210</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>2211</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <f t="shared" si="0"/>
         <v>2212</v>
       </c>
@@ -850,51 +859,51 @@
       <c r="B12">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>2301</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>2302</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>2303</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>2304</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>2305</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>2306</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>2307</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>2308</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>2309</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>2310</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>2311</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <f t="shared" si="0"/>
         <v>2312</v>
       </c>
@@ -903,110 +912,110 @@
       <c r="B13">
         <v>320</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>32001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>32002</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>32003</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>32004</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>32005</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>32006</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>32007</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f t="shared" si="0"/>
         <v>32008</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>32009</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>32010</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>32011</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>32012</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
